--- a/jimalaya.xlsx
+++ b/jimalaya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/ArboxHomeAssignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A60C89D-7F86-444E-A472-42C9D61E58EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6EE2E-53C6-F749-B0B2-5AE0893CED9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="8600" windowWidth="28800" windowHeight="18000" xr2:uid="{DAFC7697-E8A1-C34C-A478-3187AEADA85D}"/>
   </bookViews>
@@ -535,7 +535,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="89.6640625" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>

--- a/jimalaya.xlsx
+++ b/jimalaya.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/PycharmProjects/ArboxHomeAssignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA6EE2E-53C6-F749-B0B2-5AE0893CED9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786F7418-20CC-A446-85F2-38243DFD1650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="8600" windowWidth="28800" windowHeight="18000" xr2:uid="{DAFC7697-E8A1-C34C-A478-3187AEADA85D}"/>
+    <workbookView xWindow="-28800" yWindow="9100" windowWidth="28800" windowHeight="17500" xr2:uid="{DAFC7697-E8A1-C34C-A478-3187AEADA85D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
